--- a/modelos/relatorio.xlsx
+++ b/modelos/relatorio.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087E479-8D08-4B0A-836F-79FC215081CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000&quot;-&quot;0"/>
     <numFmt numFmtId="165" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
@@ -139,11 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,78 +491,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
